--- a/dataset/HomeLoanwrite_Data.xlsx
+++ b/dataset/HomeLoanwrite_Data.xlsx
@@ -38,31 +38,31 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 19,293</t>
-  </si>
-  <si>
-    <t>₹ 1,03,748</t>
-  </si>
-  <si>
-    <t>₹ 2,40,735</t>
-  </si>
-  <si>
-    <t>₹ 3,63,776</t>
-  </si>
-  <si>
-    <t>₹ 11,80,707</t>
-  </si>
-  <si>
-    <t>1.61%</t>
+    <t>₹ 17,469</t>
+  </si>
+  <si>
+    <t>₹ 94,387</t>
+  </si>
+  <si>
+    <t>₹ 2,18,850</t>
+  </si>
+  <si>
+    <t>₹ 3,30,706</t>
+  </si>
+  <si>
+    <t>₹ 11,82,531</t>
+  </si>
+  <si>
+    <t>1.46%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 23,046</t>
-  </si>
-  <si>
-    <t>₹ 1,11,181</t>
+    <t>₹ 22,865</t>
+  </si>
+  <si>
+    <t>₹ 1,11,362</t>
   </si>
   <si>
     <t>₹ 2,62,620</t>
@@ -71,292 +71,292 @@
     <t>₹ 3,96,847</t>
   </si>
   <si>
-    <t>₹ 11,57,661</t>
-  </si>
-  <si>
-    <t>3.53%</t>
+    <t>₹ 11,59,666</t>
+  </si>
+  <si>
+    <t>3.36%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 25,333</t>
-  </si>
-  <si>
-    <t>₹ 1,08,894</t>
-  </si>
-  <si>
-    <t>₹ 11,32,328</t>
-  </si>
-  <si>
-    <t>5.64%</t>
+    <t>₹ 25,134</t>
+  </si>
+  <si>
+    <t>₹ 1,09,093</t>
+  </si>
+  <si>
+    <t>₹ 11,34,532</t>
+  </si>
+  <si>
+    <t>5.46%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 27,848</t>
-  </si>
-  <si>
-    <t>₹ 1,06,379</t>
-  </si>
-  <si>
-    <t>₹ 11,04,480</t>
-  </si>
-  <si>
-    <t>7.96%</t>
+    <t>₹ 27,629</t>
+  </si>
+  <si>
+    <t>₹ 1,06,598</t>
+  </si>
+  <si>
+    <t>₹ 11,06,903</t>
+  </si>
+  <si>
+    <t>7.76%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 30,611</t>
-  </si>
-  <si>
-    <t>₹ 1,03,616</t>
-  </si>
-  <si>
-    <t>₹ 10,73,869</t>
-  </si>
-  <si>
-    <t>10.51%</t>
+    <t>₹ 30,371</t>
+  </si>
+  <si>
+    <t>₹ 1,03,856</t>
+  </si>
+  <si>
+    <t>₹ 10,76,532</t>
+  </si>
+  <si>
+    <t>10.29%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 33,649</t>
-  </si>
-  <si>
-    <t>₹ 1,00,577</t>
-  </si>
-  <si>
-    <t>₹ 10,40,219</t>
-  </si>
-  <si>
-    <t>13.32%</t>
+    <t>₹ 33,385</t>
+  </si>
+  <si>
+    <t>₹ 1,00,842</t>
+  </si>
+  <si>
+    <t>₹ 10,43,147</t>
+  </si>
+  <si>
+    <t>13.07%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 36,989</t>
-  </si>
-  <si>
-    <t>₹ 97,238</t>
-  </si>
-  <si>
-    <t>₹ 10,03,230</t>
-  </si>
-  <si>
-    <t>16.4%</t>
+    <t>₹ 36,699</t>
+  </si>
+  <si>
+    <t>₹ 97,528</t>
+  </si>
+  <si>
+    <t>₹ 10,06,448</t>
+  </si>
+  <si>
+    <t>16.13%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 40,660</t>
-  </si>
-  <si>
-    <t>₹ 93,567</t>
-  </si>
-  <si>
-    <t>₹ 9,62,570</t>
-  </si>
-  <si>
-    <t>19.79%</t>
+    <t>₹ 40,341</t>
+  </si>
+  <si>
+    <t>₹ 93,886</t>
+  </si>
+  <si>
+    <t>₹ 9,66,107</t>
+  </si>
+  <si>
+    <t>19.49%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 44,696</t>
-  </si>
-  <si>
-    <t>₹ 89,531</t>
-  </si>
-  <si>
-    <t>₹ 9,17,874</t>
-  </si>
-  <si>
-    <t>23.51%</t>
+    <t>₹ 44,345</t>
+  </si>
+  <si>
+    <t>₹ 89,882</t>
+  </si>
+  <si>
+    <t>₹ 9,21,763</t>
+  </si>
+  <si>
+    <t>23.19%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 49,132</t>
-  </si>
-  <si>
-    <t>₹ 85,095</t>
-  </si>
-  <si>
-    <t>₹ 8,68,743</t>
-  </si>
-  <si>
-    <t>27.6%</t>
+    <t>₹ 48,746</t>
+  </si>
+  <si>
+    <t>₹ 85,481</t>
+  </si>
+  <si>
+    <t>₹ 8,73,017</t>
+  </si>
+  <si>
+    <t>27.25%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 54,008</t>
-  </si>
-  <si>
-    <t>₹ 80,219</t>
-  </si>
-  <si>
-    <t>₹ 8,14,735</t>
-  </si>
-  <si>
-    <t>32.11%</t>
+    <t>₹ 53,584</t>
+  </si>
+  <si>
+    <t>₹ 80,643</t>
+  </si>
+  <si>
+    <t>₹ 8,19,433</t>
+  </si>
+  <si>
+    <t>31.71%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 59,368</t>
-  </si>
-  <si>
-    <t>₹ 74,859</t>
-  </si>
-  <si>
-    <t>₹ 7,55,367</t>
-  </si>
-  <si>
-    <t>37.05%</t>
+    <t>₹ 58,902</t>
+  </si>
+  <si>
+    <t>₹ 75,325</t>
+  </si>
+  <si>
+    <t>₹ 7,60,532</t>
+  </si>
+  <si>
+    <t>36.62%</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 65,260</t>
-  </si>
-  <si>
-    <t>₹ 68,967</t>
-  </si>
-  <si>
-    <t>₹ 6,90,107</t>
-  </si>
-  <si>
-    <t>42.49%</t>
+    <t>₹ 64,747</t>
+  </si>
+  <si>
+    <t>₹ 69,479</t>
+  </si>
+  <si>
+    <t>₹ 6,95,784</t>
+  </si>
+  <si>
+    <t>42.02%</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 71,737</t>
-  </si>
-  <si>
-    <t>₹ 62,490</t>
-  </si>
-  <si>
-    <t>₹ 6,18,370</t>
-  </si>
-  <si>
-    <t>48.47%</t>
+    <t>₹ 71,173</t>
+  </si>
+  <si>
+    <t>₹ 63,053</t>
+  </si>
+  <si>
+    <t>₹ 6,24,611</t>
+  </si>
+  <si>
+    <t>47.95%</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 78,857</t>
-  </si>
-  <si>
-    <t>₹ 55,370</t>
-  </si>
-  <si>
-    <t>₹ 5,39,514</t>
-  </si>
-  <si>
-    <t>55.04%</t>
+    <t>₹ 78,237</t>
+  </si>
+  <si>
+    <t>₹ 55,990</t>
+  </si>
+  <si>
+    <t>₹ 5,46,374</t>
+  </si>
+  <si>
+    <t>54.47%</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 86,683</t>
-  </si>
-  <si>
-    <t>₹ 47,544</t>
-  </si>
-  <si>
-    <t>₹ 4,52,831</t>
-  </si>
-  <si>
-    <t>62.26%</t>
+    <t>₹ 86,002</t>
+  </si>
+  <si>
+    <t>₹ 48,225</t>
+  </si>
+  <si>
+    <t>₹ 4,60,372</t>
+  </si>
+  <si>
+    <t>61.64%</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 95,286</t>
-  </si>
-  <si>
-    <t>₹ 38,941</t>
-  </si>
-  <si>
-    <t>₹ 3,57,545</t>
-  </si>
-  <si>
-    <t>70.2%</t>
+    <t>₹ 94,538</t>
+  </si>
+  <si>
+    <t>₹ 39,689</t>
+  </si>
+  <si>
+    <t>₹ 3,65,834</t>
+  </si>
+  <si>
+    <t>69.51%</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 1,04,743</t>
-  </si>
-  <si>
-    <t>₹ 29,484</t>
-  </si>
-  <si>
-    <t>₹ 2,52,802</t>
-  </si>
-  <si>
-    <t>78.93%</t>
+    <t>₹ 1,03,920</t>
+  </si>
+  <si>
+    <t>₹ 30,307</t>
+  </si>
+  <si>
+    <t>₹ 2,61,914</t>
+  </si>
+  <si>
+    <t>78.17%</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 1,15,138</t>
-  </si>
-  <si>
-    <t>₹ 19,088</t>
-  </si>
-  <si>
-    <t>₹ 1,37,663</t>
-  </si>
-  <si>
-    <t>88.53%</t>
+    <t>₹ 1,14,234</t>
+  </si>
+  <si>
+    <t>₹ 19,993</t>
+  </si>
+  <si>
+    <t>₹ 1,47,680</t>
+  </si>
+  <si>
+    <t>87.69%</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 1,26,566</t>
-  </si>
-  <si>
-    <t>₹ 7,661</t>
-  </si>
-  <si>
-    <t>₹ 11,098</t>
-  </si>
-  <si>
-    <t>99.08%</t>
+    <t>₹ 1,25,572</t>
+  </si>
+  <si>
+    <t>₹ 8,655</t>
+  </si>
+  <si>
+    <t>₹ 22,108</t>
+  </si>
+  <si>
+    <t>98.16%</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 88</t>
-  </si>
-  <si>
-    <t>₹ 21,885</t>
-  </si>
-  <si>
-    <t>₹ 33,071</t>
+    <t>₹ 263</t>
+  </si>
+  <si>
+    <t>₹ 43,770</t>
+  </si>
+  <si>
+    <t>₹ 66,141</t>
   </si>
   <si>
     <t>₹ 0</t>
